--- a/Python_Trainng_Curriculam.xlsx
+++ b/Python_Trainng_Curriculam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\Python_Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smvin\Documents\Python_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BD2DEC-4E30-4F0F-8C28-6B0B179D0E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB55366-092C-418B-ABF5-080C9D9203CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -210,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -314,17 +314,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -609,18 +609,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1201D40-36D9-43D2-8772-2474A626C0AE}">
   <dimension ref="B1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="33.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.1796875" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:4" ht="17" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -642,63 +642,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="7"/>
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="7"/>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="7"/>
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="7"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="7"/>
       <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>47</v>
       </c>
@@ -709,49 +709,49 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
       <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
       <c r="D17" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
       <c r="D18" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
@@ -762,35 +762,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="7"/>
       <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="7"/>
       <c r="D21" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="7"/>
       <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="7"/>
       <c r="D23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
@@ -801,35 +801,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="8"/>
       <c r="D25" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="8"/>
       <c r="D26" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
       <c r="D27" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="8"/>
       <c r="D28" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>50</v>
       </c>
@@ -840,77 +840,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="7"/>
       <c r="D30" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="7"/>
       <c r="D31" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="7"/>
       <c r="D32" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="7"/>
       <c r="D33" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="7"/>
       <c r="D34" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="7"/>
       <c r="D35" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
       <c r="C36" s="7"/>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="7"/>
       <c r="D37" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="7"/>
       <c r="D38" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="7"/>
       <c r="D39" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>51</v>
       </c>
@@ -921,75 +921,75 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
       <c r="C41" s="8"/>
       <c r="D41" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
       <c r="D42" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
       <c r="D43" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
       <c r="D46" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
       <c r="D47" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
       <c r="D48" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="6"/>
       <c r="C49" s="8"/>
       <c r="D49" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="8"/>
       <c r="D50" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>52</v>
       </c>
@@ -1000,14 +1000,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
       <c r="C52" s="7"/>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
         <v>53</v>
       </c>

--- a/Python_Trainng_Curriculam.xlsx
+++ b/Python_Trainng_Curriculam.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smvin\Documents\Python_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB55366-092C-418B-ABF5-080C9D9203CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1E30DB-CC7D-4F07-A29F-4AC8CCD9D2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Session1" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
   <si>
     <t>Days</t>
   </si>
@@ -609,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1201D40-36D9-43D2-8772-2474A626C0AE}">
   <dimension ref="B1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,4 +1011,422 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AEA486-9EC7-4F31-AB86-6F7B75094C25}">
+  <dimension ref="B1:D53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="33.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45349</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45351</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45356</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="8">
+        <v>45358</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="7">
+        <v>45363</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="8">
+        <v>45365</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="6"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="6"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="6"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="6"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="7">
+        <v>45370</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="10">
+        <v>45372</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python_Trainng_Curriculam.xlsx
+++ b/Python_Trainng_Curriculam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smvin\Documents\Python_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1E30DB-CC7D-4F07-A29F-4AC8CCD9D2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EA5EE5-07B7-4F3F-8D52-76A410E08CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
   <si>
     <t>Days</t>
   </si>
@@ -1015,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AEA486-9EC7-4F31-AB86-6F7B75094C25}">
-  <dimension ref="B1:D53"/>
+  <dimension ref="B1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,202 +1227,195 @@
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
       <c r="D27" s="6" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="6" t="s">
-        <v>5</v>
+      <c r="B28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="7">
+        <v>45363</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="7">
-        <v>45363</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="7"/>
       <c r="D30" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="7"/>
       <c r="D31" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="7"/>
       <c r="D32" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="7"/>
       <c r="D33" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="7"/>
       <c r="D34" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="7"/>
       <c r="D35" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
       <c r="C36" s="7"/>
       <c r="D36" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="7"/>
       <c r="D37" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="7"/>
       <c r="D38" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="3" t="s">
-        <v>5</v>
+      <c r="B39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="8">
+        <v>45365</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="8">
-        <v>45365</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
       <c r="C41" s="8"/>
       <c r="D41" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
       <c r="D42" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
       <c r="D46" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
       <c r="D47" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
       <c r="D48" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="6"/>
       <c r="C49" s="8"/>
       <c r="D49" s="6" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="6"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="6" t="s">
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="7">
+        <v>45370</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="7">
-        <v>45370</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B53" s="6" t="s">
+    <row r="52" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B52" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C52" s="10">
         <v>45372</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D52" s="9" t="s">
         <v>54</v>
       </c>
     </row>
